--- a/tables/facemarkup_yes_problem.xlsx
+++ b/tables/facemarkup_yes_problem.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,11 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">MathML; </t>
+          <t>MathML</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -512,18 +512,18 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>article title used as abstract; abstract in article</t>
+          <t xml:space="preserve">U+2009 thin space from general punc; </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>chemistry notation; MathML</t>
+          <t>includes HTML</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -534,7 +534,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>includes figure, disclosures</t>
+          <t>includes disclosures; includes figure</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -545,7 +545,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>includes figure, discosures; non-Latin char; MathML</t>
+          <t>includes hyperlinks</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -556,7 +556,7 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>includes hyperlinks</t>
+          <t>includes tex-math, not MathML</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -564,45 +564,23 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>proceedings-article:None</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>includes script from the landing page</t>
+          <t>includes HTML</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>non-Latin char; MathML</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>proceedings-article:None</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>less than and greater than markup</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tables/facemarkup_yes_problem.xlsx
+++ b/tables/facemarkup_yes_problem.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +501,7 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>No problems</t>
+          <t xml:space="preserve">U+2009 thin space from general punc; </t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -512,18 +512,18 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">U+2009 thin space from general punc; </t>
+          <t>includes HTML</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>includes HTML</t>
+          <t>includes disclosures; includes figure</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -534,7 +534,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>includes disclosures; includes figure</t>
+          <t>includes hyperlinks</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -545,7 +545,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>includes hyperlinks</t>
+          <t>includes tex-math, not MathML</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -553,34 +553,23 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>proceedings-article:None</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>includes tex-math, not MathML</t>
+          <t>includes HTML</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>proceedings-article:None</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>includes HTML</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
